--- a/biology/Zoologie/Flabellinopsis_iodinea/Flabellinopsis_iodinea.xlsx
+++ b/biology/Zoologie/Flabellinopsis_iodinea/Flabellinopsis_iodinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Flabellinopsis
-Flabellinopsis iodinea[3], unique représentant du genre Flabellinopsis, est une espèce de mollusques nudibranches de la famille des Flabellinopsidae.
+Flabellinopsis iodinea, unique représentant du genre Flabellinopsis, est une espèce de mollusques nudibranches de la famille des Flabellinopsidae.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Flabellinopsis iodinea a été initialement décrite en 1863 par le chirurgien et naturaliste américain James Graham Cooper (1830-1902) sous le protonyme d’Aeolis iodinea[1],[4].
-Le malacologiste américain Frank Mace MacFarland (d) (1869-1951) crée le genre Flabellinopsis pour l'y ranger sous le taxon actuel[1]. À noter que ce n'est que 15 ans après sa mort qu'a été publié son mémoire et que c'est la date de 1966 qui est reconnue[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Flabellinopsis iodinea a été initialement décrite en 1863 par le chirurgien et naturaliste américain James Graham Cooper (1830-1902) sous le protonyme d’Aeolis iodinea,.
+Le malacologiste américain Frank Mace MacFarland (d) (1869-1951) crée le genre Flabellinopsis pour l'y ranger sous le taxon actuel. À noter que ce n'est que 15 ans après sa mort qu'a été publié son mémoire et que c'est la date de 1966 qui est reconnue.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Genre Flabellinopsis :
 (en) Frank Mace MacFarland, « Studies of opisthobranchiate mollusks of the Pacific coast of North America », Memoirs of the California Academy of Sciences, San Francisco, Inconnu, vol. 6,‎ 8 avril 1966, p. 1-546 (ISSN 0885-4629, OCLC 1552526, lire en ligne)
